--- a/scripts/laws-influences.xlsx
+++ b/scripts/laws-influences.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/repos/law-networks-v2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/repos/imperial-networks/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="197">
   <si>
     <t>Name of the Law</t>
   </si>
@@ -1672,9 +1672,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="92" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3279,6 +3279,9 @@
       <c r="I46" s="2">
         <v>69</v>
       </c>
+      <c r="J46" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="K46" s="2" t="s">
         <v>131</v>
       </c>
@@ -3345,6 +3348,9 @@
       </c>
       <c r="I48" s="2">
         <v>53</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>135</v>

--- a/scripts/laws-influences.xlsx
+++ b/scripts/laws-influences.xlsx
@@ -25,18 +25,12 @@
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="198">
   <si>
     <t>Name of the Law</t>
   </si>
@@ -437,33 +431,6 @@
   </si>
   <si>
     <t>Intent to “bring the [Indian] nations to […] civilization of their manners [and] regulation of their lives.”</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It is necessary to make [Madagascar] entirely French, in terms of customs &amp; language, &amp; </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times"/>
-        <family val="1"/>
-      </rPr>
-      <t>to eventually form only one people out of the two nations</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times"/>
-        <family val="1"/>
-      </rPr>
-      <t>, who would only worship one same God, who would only have one same religion."</t>
-    </r>
-  </si>
-  <si>
-    <t>François Charpentier, Relation de l'établissement de la Compagnie Françoise pour le commerce des Indes orientales (Paris, 1666), 111.</t>
   </si>
   <si>
     <t>Naturalization</t>
@@ -1174,13 +1141,22 @@
   </si>
   <si>
     <t>On the question of marriages of Frenchmen to native women […] it would be easy to obtain a prohibition from the Court similar to the one it issued for the Government of Louisiana</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Goes Through Metrople</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1293,6 +1269,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1318,7 +1302,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1350,6 +1334,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1670,30 +1657,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="92" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="93" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="2"/>
     <col min="2" max="2" width="23.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="30.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17" style="2" customWidth="1"/>
-    <col min="8" max="9" width="25.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="21.1640625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="2"/>
+    <col min="3" max="4" width="20" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="30.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17" style="2" customWidth="1"/>
+    <col min="9" max="10" width="25.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="21.1640625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>127</v>
+    <row r="1" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>125</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1702,35 +1689,38 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="M1" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1740,35 +1730,38 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>1723</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <v>16</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="2">
+      <c r="M2" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="176" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+    <row r="3" spans="1:13" ht="176" x14ac:dyDescent="0.2">
+      <c r="A3" s="15">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1778,35 +1771,38 @@
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2">
-        <v>1728</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="2">
+        <v>1651</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="3">
+      <c r="J3" s="3">
         <v>17</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="2">
+      <c r="M3" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="176" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+    <row r="4" spans="1:13" ht="176" x14ac:dyDescent="0.2">
+      <c r="A4" s="15">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1816,35 +1812,38 @@
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>1651</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <v>5</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L4" s="2">
+      <c r="M4" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="128" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+    <row r="5" spans="1:13" ht="128" x14ac:dyDescent="0.2">
+      <c r="A5" s="15">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1854,35 +1853,38 @@
         <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>1747</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>18</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="64" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+    <row r="6" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="A6" s="15">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1892,35 +1894,38 @@
         <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>1627</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="3">
+      <c r="J6" s="3">
         <v>17</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="2">
+      <c r="M6" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="80" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+    <row r="7" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+      <c r="A7" s="15">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1930,35 +1935,38 @@
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>1627</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="3">
+      <c r="J7" s="3">
         <v>19</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="L7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="96" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+    <row r="8" spans="1:13" ht="96" x14ac:dyDescent="0.2">
+      <c r="A8" s="15">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1968,35 +1976,38 @@
         <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>1664</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>19</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="L8" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="L8" s="2">
+      <c r="M8" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="96" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+    <row r="9" spans="1:13" ht="96" x14ac:dyDescent="0.2">
+      <c r="A9" s="15">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -2006,35 +2017,38 @@
         <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>1664</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <v>19</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="L9" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="L9" s="2">
+      <c r="M9" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="64" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+    <row r="10" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="A10" s="15">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -2044,35 +2058,38 @@
         <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>1688</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="2">
         <v>19</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="L10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="L10" s="2">
+      <c r="M10" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="409" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+    <row r="11" spans="1:13" ht="409" x14ac:dyDescent="0.2">
+      <c r="A11" s="15">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -2082,35 +2099,38 @@
         <v>34</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>1664</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="3">
+      <c r="J11" s="3">
         <v>17</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L11" s="2">
+      <c r="M11" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="96" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+    <row r="12" spans="1:13" ht="96" x14ac:dyDescent="0.2">
+      <c r="A12" s="15">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2120,35 +2140,38 @@
         <v>37</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>1664</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>17</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="L12" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="L12" s="2">
+      <c r="M12" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="96" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+    <row r="13" spans="1:13" ht="96" x14ac:dyDescent="0.2">
+      <c r="A13" s="15">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -2158,35 +2181,38 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>1664</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="3">
+      <c r="J13" s="3">
         <v>17</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="L13" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="L13" s="2">
+      <c r="M13" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="192" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+    <row r="14" spans="1:13" ht="192" x14ac:dyDescent="0.2">
+      <c r="A14" s="15">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2196,852 +2222,924 @@
         <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>1688</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="I14" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="5">
-        <v>21</v>
-      </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="5">
         <v>20</v>
       </c>
       <c r="K14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L14" s="2">
+      <c r="M14" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="224" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+    <row r="15" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="15">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1701</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="5">
+        <v>20</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M15" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A16" s="15">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1685</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="M16" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="192" x14ac:dyDescent="0.2">
+      <c r="A17" s="15">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1664</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I15" s="5">
-        <v>21</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L15" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1701</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="5">
-        <v>21</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L16" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1626</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M17" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="409" x14ac:dyDescent="0.2">
+      <c r="A18" s="15">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="2">
-        <v>1685</v>
-      </c>
-      <c r="F17" s="2" t="s">
+      <c r="F18" s="2">
+        <v>1724</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M18" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="409" x14ac:dyDescent="0.2">
+      <c r="A19" s="15">
+        <v>19</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1626</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K17" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="L17" s="2">
+      <c r="L19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M19" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="192" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1626</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="L18" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="409" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1724</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L19" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="409" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>14</v>
+    <row r="20" spans="1:13" ht="96" x14ac:dyDescent="0.2">
+      <c r="A20" s="15">
+        <v>20</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="2">
-        <v>1626</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="2" t="s">
+      <c r="F20" s="2">
+        <v>1642</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K20" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="L20" s="2">
+      <c r="L20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M20" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="96" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+    <row r="21" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="15">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1664</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J21" s="4">
+        <v>22</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="L21" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="M21" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A22" s="15">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1603</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="M22" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="A23" s="15">
+        <v>23</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D23" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="2">
+      <c r="F23" s="2">
+        <v>1635</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="3">
+        <v>24</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="112" x14ac:dyDescent="0.2">
+      <c r="A24" s="15">
+        <v>24</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1627</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M24" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="96" x14ac:dyDescent="0.2">
+      <c r="A25" s="15">
+        <v>25</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1664</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M25" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A26" s="15">
+        <v>26</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1664</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="4">
+        <v>25</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M26" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A27" s="15">
+        <v>27</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1664</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" s="4">
+        <v>25</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M27" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A28" s="15">
+        <v>28</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="11">
+        <v>1664</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" s="4">
+        <v>25</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M28" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A29" s="15">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1603</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M29" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="A30" s="15">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="2">
         <v>1642</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L21" s="2">
+      <c r="G30" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J30" s="2">
+        <v>29</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="M30" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="2">
-        <v>1664</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I22" s="4">
-        <v>22</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="L22" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1603</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="L23" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="64" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="2">
-        <v>1635</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="3">
-        <v>24</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="112" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="2">
-        <v>1627</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L25" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="96" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="2">
-        <v>1664</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="L26" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="2">
-        <v>1664</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I27" s="4">
-        <v>25</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="L27" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="2">
-        <v>1664</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I28" s="4">
-        <v>25</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="L28" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="11">
-        <v>1664</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I29" s="4">
-        <v>25</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="L29" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="2">
-        <v>1603</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L30" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="64" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>30</v>
+    <row r="31" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A31" s="15">
+        <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="2">
-        <v>1642</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>88</v>
+      <c r="F31" s="2">
+        <v>1669</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I31" s="2">
+        <v>86</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J31" s="2">
         <v>29</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="K31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="6" t="s">
+      <c r="L31" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L31" s="2">
+      <c r="M31" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>31</v>
+    <row r="32" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A32" s="15">
+        <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1699</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="2">
-        <v>1669</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="H32" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I32" s="2">
+        <v>86</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J32" s="2">
         <v>29</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="K32" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K32" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L32" s="2">
+      <c r="L32" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M32" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
-        <v>32</v>
+    <row r="33" spans="1:13" ht="112" x14ac:dyDescent="0.2">
+      <c r="A33" s="15">
+        <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1667</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M33" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="A34" s="15">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1674</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M34" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A35" s="15">
+        <v>35</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1688</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J35" s="2">
+        <v>34</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M35" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+      <c r="A36" s="15">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1693</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J36" s="2">
+        <v>34</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M36" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="409" x14ac:dyDescent="0.2">
+      <c r="A37" s="15">
+        <v>37</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D37" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="2">
-        <v>1699</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I33" s="2">
-        <v>29</v>
-      </c>
-      <c r="J33" s="2" t="s">
+      <c r="F37" s="2">
+        <v>1724</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J37" s="2">
+        <v>38</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M37" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="224" x14ac:dyDescent="0.2">
+      <c r="A38" s="15">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1723</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J38" s="2">
+        <v>34</v>
+      </c>
+      <c r="K38" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K33" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L33" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="112" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" s="2">
-        <v>1667</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L34" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="64" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E35" s="2">
-        <v>1674</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I35" s="2">
-        <v>33</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L35" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
-        <v>35</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="2">
-        <v>1688</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I36" s="2">
-        <v>33</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K36" s="7" t="s">
+      <c r="L38" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="L36" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="80" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
-        <v>36</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" s="2">
-        <v>1693</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I37" s="2">
-        <v>33</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="L37" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="409" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
-        <v>37</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="2">
-        <v>1724</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="L38" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="224" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
-        <v>38</v>
+    </row>
+    <row r="39" spans="1:13" ht="409" x14ac:dyDescent="0.2">
+      <c r="A39" s="15">
+        <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>25</v>
@@ -3050,85 +3148,103 @@
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="2">
+      <c r="F39" s="2">
         <v>1723</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="409" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
+      <c r="G39" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" s="2">
+        <v>40</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="320" x14ac:dyDescent="0.2">
+      <c r="A40" s="15">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1685</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L40" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="409" x14ac:dyDescent="0.2">
+      <c r="A41" s="15">
+        <v>41</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1724</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J41" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="2">
-        <v>1723</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G40" s="2" t="s">
+      <c r="K41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L41" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H40" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="320" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
-        <v>40</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="2">
-        <v>1685</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="409" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
-        <v>41</v>
+    </row>
+    <row r="42" spans="1:13" ht="409" x14ac:dyDescent="0.2">
+      <c r="A42" s="15">
+        <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>30</v>
@@ -3137,922 +3253,983 @@
         <v>47</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="2">
+      <c r="F42" s="2">
         <v>1724</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="G42" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="I42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J42" s="2">
+        <v>43</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L42" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H42" s="2" t="s">
+    </row>
+    <row r="43" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A43" s="15">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="C43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1723</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="409" x14ac:dyDescent="0.2">
+      <c r="A44" s="15">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1724</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J44" s="2">
+        <v>45</v>
+      </c>
+      <c r="K44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K42" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="409" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
-        <v>42</v>
-      </c>
-      <c r="B43" s="2" t="s">
+      <c r="L44" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="240" x14ac:dyDescent="0.2">
+      <c r="A45" s="15">
+        <v>45</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1723</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J45" s="2">
+        <v>69</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="96" x14ac:dyDescent="0.2">
+      <c r="A46" s="15">
+        <v>46</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F46" s="2">
+        <v>1749</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J46" s="2">
+        <v>47</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A47" s="15">
+        <v>47</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1728</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J47" s="2">
+        <v>53</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="112" x14ac:dyDescent="0.2">
+      <c r="A48" s="15">
+        <v>48</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F48" s="2">
+        <v>1758</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I48" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="2">
-        <v>1724</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
-        <v>43</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="2">
-        <v>1723</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="409" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
-        <v>44</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="2">
-        <v>1724</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I45" s="2">
-        <v>45</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="240" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
-        <v>45</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="2">
-        <v>1723</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="I46" s="2">
-        <v>69</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="96" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
-        <v>46</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E47" s="2">
-        <v>1749</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I47" s="2">
-        <v>47</v>
-      </c>
-      <c r="J47" s="2" t="s">
+      <c r="J48" s="2">
+        <v>37</v>
+      </c>
+      <c r="K48" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K47" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
-        <v>47</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E48" s="2">
-        <v>1728</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="I48" s="2">
-        <v>53</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="112" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
-        <v>48</v>
+      <c r="L48" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="256" x14ac:dyDescent="0.2">
+      <c r="A49" s="15">
+        <v>49</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E49" s="2">
-        <v>1758</v>
-      </c>
-      <c r="F49" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="2">
+        <v>1726</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J49" s="2">
+        <v>42</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L49" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H49" s="2" t="s">
+    </row>
+    <row r="50" spans="1:12" s="14" customFormat="1" ht="256" x14ac:dyDescent="0.2">
+      <c r="A50" s="15">
+        <v>50</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="14">
+        <v>1726</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="I50" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I49" s="2">
-        <v>37</v>
-      </c>
-      <c r="J49" s="2" t="s">
+      <c r="J50" s="14">
+        <v>42</v>
+      </c>
+      <c r="K50" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K49" s="6" t="s">
+      <c r="L50" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="256" x14ac:dyDescent="0.2">
+      <c r="A51" s="15">
+        <v>51</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" ht="256" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
-        <v>49</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C50" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D51" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E50" s="2">
+      <c r="F51" s="2">
         <v>1726</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="G51" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J51" s="2">
+        <v>44</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="256" x14ac:dyDescent="0.2">
+      <c r="A52" s="15">
+        <v>52</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="2">
+        <v>1726</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J52" s="2">
+        <v>44</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+      <c r="A53" s="15">
+        <v>53</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I50" s="2">
-        <v>42</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" s="14" customFormat="1" ht="256" x14ac:dyDescent="0.2">
-      <c r="A51" s="14">
-        <v>50</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="14">
-        <v>1726</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="G51" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="H51" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I51" s="14">
-        <v>42</v>
-      </c>
-      <c r="J51" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="K51" s="14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="256" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
-        <v>51</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="2">
-        <v>1726</v>
-      </c>
-      <c r="F52" s="5" t="s">
+      <c r="C53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53" s="2">
+        <v>1709</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L53" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I52" s="2">
-        <v>44</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="256" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
-        <v>52</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="2">
-        <v>1726</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I53" s="2">
-        <v>44</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
-        <v>53</v>
+    </row>
+    <row r="54" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="A54" s="15">
+        <v>54</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E54" s="2">
-        <v>1709</v>
-      </c>
-      <c r="F54" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F54" s="2">
+        <v>1716</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J54" s="2">
+        <v>53</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L54" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="G54" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K54" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="48" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
-        <v>54</v>
+    </row>
+    <row r="55" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A55" s="15">
+        <v>55</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E55" s="2">
-        <v>1716</v>
-      </c>
-      <c r="F55" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="2">
+        <v>1730</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J55" s="2">
+        <v>53</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="A56" s="15">
+        <v>56</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F56" s="2">
+        <v>1734</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I56" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="I55" s="2">
+      <c r="J56" s="2">
         <v>53</v>
       </c>
-      <c r="J55" s="2" t="s">
+      <c r="K56" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K55" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
-        <v>55</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E56" s="2">
-        <v>1730</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K56" s="6" t="s">
+      <c r="L56" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="48" x14ac:dyDescent="0.2">
-      <c r="A57" s="2">
-        <v>56</v>
+    <row r="57" spans="1:12" ht="160" x14ac:dyDescent="0.2">
+      <c r="A57" s="15">
+        <v>57</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="2">
+        <v>1736</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="160" x14ac:dyDescent="0.2">
+      <c r="A58" s="15">
+        <v>58</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E57" s="2">
-        <v>1734</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="I57" s="2">
-        <v>55</v>
-      </c>
-      <c r="J57" s="2" t="s">
+      <c r="F58" s="2">
+        <v>1743</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J58" s="2">
+        <v>57</v>
+      </c>
+      <c r="K58" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K57" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="160" x14ac:dyDescent="0.2">
-      <c r="A58" s="2">
-        <v>57</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E58" s="2">
-        <v>1736</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="160" x14ac:dyDescent="0.2">
-      <c r="A59" s="2">
-        <v>58</v>
+      <c r="L58" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="A59" s="15">
+        <v>59</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>164</v>
       </c>
       <c r="C59" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F59" s="2">
+        <v>1726</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L59" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="160" x14ac:dyDescent="0.2">
+      <c r="A60" s="15">
+        <v>60</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F60" s="2">
+        <v>1738</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J60" s="2">
+        <v>59</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A61" s="15">
+        <v>61</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D61" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E59" s="2">
-        <v>1743</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I59" s="2">
-        <v>57</v>
-      </c>
-      <c r="J59" s="2" t="s">
+      <c r="F61" s="2">
+        <v>1748</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J61" s="2">
+        <v>59</v>
+      </c>
+      <c r="K61" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K59" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="48" x14ac:dyDescent="0.2">
-      <c r="A60" s="2">
-        <v>59</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E60" s="2">
-        <v>1726</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K60" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="160" x14ac:dyDescent="0.2">
-      <c r="A61" s="2">
-        <v>60</v>
-      </c>
-      <c r="B61" s="2" t="s">
+      <c r="L61" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C61" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E61" s="2">
-        <v>1738</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I61" s="2">
-        <v>59</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A62" s="2">
-        <v>61</v>
+    </row>
+    <row r="62" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A62" s="15">
+        <v>62</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="2">
+        <v>1731</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I62" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J62" s="2">
+        <v>34</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L62" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A63" s="15">
+        <v>63</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F63" s="2">
+        <v>1763</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I63" s="7"/>
+      <c r="L63" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A64" s="15">
+        <v>64</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F64" s="2">
+        <v>1767</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J64" s="2">
+        <v>63</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="256" x14ac:dyDescent="0.2">
+      <c r="A65" s="15">
+        <v>65</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D65" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E62" s="2">
-        <v>1748</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I62" s="2">
-        <v>59</v>
-      </c>
-      <c r="J62" s="2" t="s">
+      <c r="F65" s="2">
+        <v>1702</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A66" s="15">
+        <v>66</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" s="2">
+        <v>1728</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="J66" s="2">
+        <v>65</v>
+      </c>
+      <c r="K66" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K62" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A63" s="2">
-        <v>62</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C63" s="2" t="s">
+      <c r="L66" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="400" x14ac:dyDescent="0.2">
+      <c r="A67" s="15">
+        <v>67</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D67" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E63" s="2">
-        <v>1731</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H63" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I63" s="2">
-        <v>38</v>
-      </c>
-      <c r="J63" s="2" t="s">
+      <c r="F67" s="2">
+        <v>1705</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="144" x14ac:dyDescent="0.2">
+      <c r="A68" s="15">
+        <v>68</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" s="2">
+        <v>1751</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J68" s="2">
+        <v>67</v>
+      </c>
+      <c r="K68" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K63" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A64" s="2">
-        <v>63</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E64" s="2">
-        <v>1763</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H64" s="7"/>
-      <c r="K64" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A65" s="2">
-        <v>64</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E65" s="2">
-        <v>1767</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I65" s="2">
-        <v>63</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K65" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="256" x14ac:dyDescent="0.2">
-      <c r="A66" s="2">
-        <v>65</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E66" s="2">
-        <v>1702</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A67" s="2">
-        <v>66</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D67" s="2" t="s">
+      <c r="L68" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="240" x14ac:dyDescent="0.2">
+      <c r="A69" s="15">
+        <v>69</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E67" s="2">
-        <v>1728</v>
-      </c>
-      <c r="F67" s="4" t="s">
+      <c r="F69" s="2">
+        <v>1678</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L69" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I67" s="2">
-        <v>65</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K67" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="400" x14ac:dyDescent="0.2">
-      <c r="A68" s="2">
-        <v>67</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" s="2">
-        <v>1705</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="144" x14ac:dyDescent="0.2">
-      <c r="A69" s="2">
-        <v>68</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E69" s="2">
-        <v>1751</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="I69" s="2">
-        <v>67</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="240" x14ac:dyDescent="0.2">
-      <c r="A70" s="2">
-        <v>69</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E70" s="2">
-        <v>1678</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
   </sheetData>
